--- a/biology/Botanique/Brachycome_à_feuilles_d'ibéride/Brachycome_à_feuilles_d'ibéride.xlsx
+++ b/biology/Botanique/Brachycome_à_feuilles_d'ibéride/Brachycome_à_feuilles_d'ibéride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brachycome_%C3%A0_feuilles_d%27ib%C3%A9ride</t>
+          <t>Brachycome_à_feuilles_d'ibéride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Brachycome à feuilles d'ibéride[2], Brachyscome iberidifolia, est une espèce de plantes à fleurs de la famille des Asteracées originaire de l'ouest de l'Australie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Brachycome à feuilles d'ibéride, Brachyscome iberidifolia, est une espèce de plantes à fleurs de la famille des Asteracées originaire de l'ouest de l'Australie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brachycome_%C3%A0_feuilles_d%27ib%C3%A9ride</t>
+          <t>Brachycome_à_feuilles_d'ibéride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonymes : 
-Brachycome iberidifolia Benth.[3]
-Brachyscome capillacea Walp.[1],[4]
-Brachyscome iberidifolia f. alba Siebert &amp; Voss[4]
-Brachyscome iberidifolia f. bicolor Siebert &amp; Voss[4]
-Brachyscome iberidifolia f. coerulea Siebert &amp; Voss[4]
-Brachyscome iberidifolia f. iberidifolia Benth.[4]
-Brachyscome iberidifolia f. rosea Siebert &amp; Voss[4]
-Brachyscome iberidifolia var. alba Steetz[1],[4]
-Brachyscome iberidifolia var. diffusa Benth.[4]
-Brachyscome iberidifolia var. divergens Steetz[4]
-Brachyscome iberidifolia var. flore-albo Bosse[4]
-Brachyscome iberidifolia var. glandulifera J.M.Black[4]
-Brachyscome iberidifolia var. huegeliana Steetz[4]
-Brachyscome iberidifolia var. iberidifolia Benth.[4]
-Brachyscome iberidifolia var. major Steetz[4]</t>
+Brachycome iberidifolia Benth.
+Brachyscome capillacea Walp.,
+Brachyscome iberidifolia f. alba Siebert &amp; Voss
+Brachyscome iberidifolia f. bicolor Siebert &amp; Voss
+Brachyscome iberidifolia f. coerulea Siebert &amp; Voss
+Brachyscome iberidifolia f. iberidifolia Benth.
+Brachyscome iberidifolia f. rosea Siebert &amp; Voss
+Brachyscome iberidifolia var. alba Steetz,
+Brachyscome iberidifolia var. diffusa Benth.
+Brachyscome iberidifolia var. divergens Steetz
+Brachyscome iberidifolia var. flore-albo Bosse
+Brachyscome iberidifolia var. glandulifera J.M.Black
+Brachyscome iberidifolia var. huegeliana Steetz
+Brachyscome iberidifolia var. iberidifolia Benth.
+Brachyscome iberidifolia var. major Steetz</t>
         </is>
       </c>
     </row>
